--- a/data/bulk/functions/AAA_f22_text only.xlsx
+++ b/data/bulk/functions/AAA_f22_text only.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamed/Desktop/AAA/22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\bulk\functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBFD4E2-731E-1448-B044-75E4E789A517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D0752-207E-4D28-A929-9B9846D579BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="28800" windowHeight="16600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -1990,14 +1992,14 @@
     <t>ycoord</t>
   </si>
   <si>
-    <t xml:space="preserve">Point </t>
+    <t>Point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2421,17 +2423,17 @@
   <dimension ref="A1:AH155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="372" zoomScalePageLayoutView="372" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="42.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="90.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="6" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="6" customFormat="1" ht="31.95" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2535,7 +2537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="357" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="328.2" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -2571,7 +2573,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="31.8" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="16.2" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -2637,7 +2639,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="50.4" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
@@ -2671,7 +2673,7 @@
       </c>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:34" ht="207" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="190.8" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="31.8" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="31.8" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="16.2" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
@@ -2800,7 +2802,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="16.2" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
@@ -2833,7 +2835,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="19.2" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>133</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="19.2" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>134</v>
       </c>
@@ -2905,7 +2907,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="16.2" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>135</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="50.4" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="47.4" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="47.4" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="47.4" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="47.4" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="47.4" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="47.4" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -3151,7 +3153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="47.4" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="34.799999999999997" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>144</v>
       </c>
@@ -3214,7 +3216,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="16.2" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>145</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="16.2" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>146</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="16.2" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>147</v>
       </c>
@@ -3316,7 +3318,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="16.2" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
@@ -3349,7 +3351,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="16.2" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>149</v>
       </c>
@@ -3382,7 +3384,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="16.2" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>150</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="16.2" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>151</v>
       </c>
@@ -3448,7 +3450,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="16.2" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="16.2" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>153</v>
       </c>
@@ -3514,7 +3516,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="16.2" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="16.2" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>155</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="16.2" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
@@ -3613,7 +3615,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="31.8" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>157</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="16.2" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>158</v>
       </c>
@@ -3685,7 +3687,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="16.2" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -3715,7 +3717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="31.8" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="31.8" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>161</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="16.2" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>162</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="31.8" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
@@ -3847,7 +3849,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="16.2" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>164</v>
       </c>
@@ -3877,7 +3879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="16.2" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>165</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -3946,7 +3948,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="47.4" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>167</v>
       </c>
@@ -3976,7 +3978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="31.8" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>168</v>
       </c>
@@ -4006,7 +4008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="16.2" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>169</v>
       </c>
@@ -4045,7 +4047,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="16.2" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="19.2" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="16.2" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>172</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="16.2" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>173</v>
       </c>
@@ -4189,7 +4191,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="16.2" thickBot="1">
       <c r="A52" s="1" t="s">
         <v>174</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="16.2" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>175</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="125.4" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>176</v>
       </c>
@@ -4293,7 +4295,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
-    <row r="55" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="16.2" thickBot="1">
       <c r="A55" s="1" t="s">
         <v>177</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="31.8" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>178</v>
       </c>
@@ -4356,7 +4358,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="31.8" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>179</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>180</v>
       </c>
@@ -4419,7 +4421,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="31.8" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>181</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="31.8" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>182</v>
       </c>
@@ -4485,7 +4487,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="94.2" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
@@ -4557,7 +4559,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="16.2" thickBot="1">
       <c r="A63" s="1" t="s">
         <v>185</v>
       </c>
@@ -4593,7 +4595,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="94.2" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>186</v>
       </c>
@@ -4638,7 +4640,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="66" thickBot="1">
       <c r="A65" s="1" t="s">
         <v>187</v>
       </c>
@@ -4671,7 +4673,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>188</v>
       </c>
@@ -4704,7 +4706,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="16.2" thickBot="1">
       <c r="A67" s="1" t="s">
         <v>189</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="56" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="53.4" thickBot="1">
       <c r="A68" s="1" t="s">
         <v>190</v>
       </c>
@@ -4770,7 +4772,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="47.4" thickBot="1">
       <c r="A69" s="1" t="s">
         <v>191</v>
       </c>
@@ -4806,7 +4808,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="81.599999999999994" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>192</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A71" s="1" t="s">
         <v>193</v>
       </c>
@@ -4878,7 +4880,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="47.4" thickBot="1">
       <c r="A72" s="1" t="s">
         <v>194</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="66" thickBot="1">
       <c r="A73" s="1" t="s">
         <v>195</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="47.4" thickBot="1">
       <c r="A74" s="1" t="s">
         <v>196</v>
       </c>
@@ -4983,7 +4985,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A75" s="1" t="s">
         <v>197</v>
       </c>
@@ -5019,7 +5021,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="287.39999999999998" thickBot="1">
       <c r="A76" s="1" t="s">
         <v>198</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="287.39999999999998" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>199</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="287.39999999999998" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>200</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="287.39999999999998" thickBot="1">
       <c r="A79" s="1" t="s">
         <v>201</v>
       </c>
@@ -5151,7 +5153,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="287.39999999999998" thickBot="1">
       <c r="A80" s="1" t="s">
         <v>202</v>
       </c>
@@ -5184,7 +5186,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="287.39999999999998" thickBot="1">
       <c r="A81" s="1" t="s">
         <v>203</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="287.39999999999998" thickBot="1">
       <c r="A82" s="1" t="s">
         <v>204</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="47.4" thickBot="1">
       <c r="A83" s="1" t="s">
         <v>205</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="63" thickBot="1">
       <c r="A84" s="1" t="s">
         <v>206</v>
       </c>
@@ -5319,7 +5321,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="63" thickBot="1">
       <c r="A85" s="1" t="s">
         <v>207</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="94.2" thickBot="1">
       <c r="A86" s="1" t="s">
         <v>208</v>
       </c>
@@ -5391,7 +5393,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="128" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="121.8" thickBot="1">
       <c r="A87" s="1" t="s">
         <v>209</v>
       </c>
@@ -5427,7 +5429,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A88" s="1" t="s">
         <v>210</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A89" s="1" t="s">
         <v>211</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="50.4" thickBot="1">
       <c r="A90" s="1" t="s">
         <v>212</v>
       </c>
@@ -5526,7 +5528,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A91" s="1" t="s">
         <v>213</v>
       </c>
@@ -5559,7 +5561,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="107" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="100.2" thickBot="1">
       <c r="A92" s="1" t="s">
         <v>214</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="47.4" thickBot="1">
       <c r="A93" s="1" t="s">
         <v>215</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="63" thickBot="1">
       <c r="A94" s="1" t="s">
         <v>216</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="16.2" thickBot="1">
       <c r="A95" s="1" t="s">
         <v>217</v>
       </c>
@@ -5700,7 +5702,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="63" thickBot="1">
       <c r="A96" s="1" t="s">
         <v>218</v>
       </c>
@@ -5736,7 +5738,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="47.4" thickBot="1">
       <c r="A97" s="1" t="s">
         <v>219</v>
       </c>
@@ -5769,7 +5771,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="109.8" thickBot="1">
       <c r="A98" s="1" t="s">
         <v>220</v>
       </c>
@@ -5799,7 +5801,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="109.8" thickBot="1">
       <c r="A99" s="1" t="s">
         <v>221</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="109.8" thickBot="1">
       <c r="A100" s="1" t="s">
         <v>222</v>
       </c>
@@ -5859,7 +5861,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="109.8" thickBot="1">
       <c r="A101" s="1" t="s">
         <v>223</v>
       </c>
@@ -5889,7 +5891,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="109.8" thickBot="1">
       <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
@@ -5919,7 +5921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="109.8" thickBot="1">
       <c r="A103" s="1" t="s">
         <v>225</v>
       </c>
@@ -5949,7 +5951,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A104" s="1" t="s">
         <v>226</v>
       </c>
@@ -5988,7 +5990,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="81.599999999999994" thickBot="1">
       <c r="A105" s="1" t="s">
         <v>227</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="94.2" thickBot="1">
       <c r="A106" s="1" t="s">
         <v>228</v>
       </c>
@@ -6060,7 +6062,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="107" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="100.2" thickBot="1">
       <c r="A107" s="1" t="s">
         <v>229</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="50.4" thickBot="1">
       <c r="A108" s="1" t="s">
         <v>230</v>
       </c>
@@ -6135,7 +6137,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="16.2" thickBot="1">
       <c r="A109" s="1" t="s">
         <v>231</v>
       </c>
@@ -6168,7 +6170,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="16.2" thickBot="1">
       <c r="A110" s="1" t="s">
         <v>232</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="66" thickBot="1">
       <c r="A111" s="1" t="s">
         <v>233</v>
       </c>
@@ -6231,7 +6233,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="66" thickBot="1">
       <c r="A112" s="1" t="s">
         <v>234</v>
       </c>
@@ -6264,7 +6266,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="16.2" thickBot="1">
       <c r="A113" s="1" t="s">
         <v>235</v>
       </c>
@@ -6300,7 +6302,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="16.2" thickBot="1">
       <c r="A114" s="1" t="s">
         <v>236</v>
       </c>
@@ -6333,7 +6335,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="16.2" thickBot="1">
       <c r="A115" s="1" t="s">
         <v>237</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="31.8" thickBot="1">
       <c r="A116" s="1" t="s">
         <v>238</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="16.2" thickBot="1">
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
@@ -6435,7 +6437,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="16.2" thickBot="1">
       <c r="A118" s="1" t="s">
         <v>240</v>
       </c>
@@ -6468,7 +6470,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="31.8" thickBot="1">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -6504,7 +6506,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="47.4" thickBot="1">
       <c r="A120" s="1" t="s">
         <v>242</v>
       </c>
@@ -6537,7 +6539,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="31.8" thickBot="1">
       <c r="A121" s="1" t="s">
         <v>243</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A122" s="1" t="s">
         <v>244</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="31.8" thickBot="1">
       <c r="A123" s="1" t="s">
         <v>245</v>
       </c>
@@ -6636,7 +6638,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="31.8" thickBot="1">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -6669,7 +6671,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="66" thickBot="1">
       <c r="A125" s="1" t="s">
         <v>247</v>
       </c>
@@ -6702,7 +6704,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="16.2" thickBot="1">
       <c r="A126" s="1" t="s">
         <v>248</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="16.2" thickBot="1">
       <c r="A127" s="1" t="s">
         <v>249</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="78.599999999999994" thickBot="1">
       <c r="A128" s="1" t="s">
         <v>250</v>
       </c>
@@ -6804,7 +6806,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="19.2" thickBot="1">
       <c r="A129" s="1" t="s">
         <v>251</v>
       </c>
@@ -6840,7 +6842,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="50.4" thickBot="1">
       <c r="A130" s="1" t="s">
         <v>252</v>
       </c>
@@ -6873,79 +6875,79 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="16.2" thickBot="1">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="16.2" thickBot="1">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="16.2" thickBot="1">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="16.2" thickBot="1">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="16.2" thickBot="1">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="16.2" thickBot="1">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="16.2" thickBot="1">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="16.2" thickBot="1">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="16.2" thickBot="1">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="16.2" thickBot="1">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="16.2" thickBot="1">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="16.2" thickBot="1">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="16.2" thickBot="1">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="16.2" thickBot="1">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="16.2" thickBot="1">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="16.2" thickBot="1">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="16.2" thickBot="1">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="16.2" thickBot="1">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="16.2" thickBot="1">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" ht="16.2" thickBot="1">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" ht="16.2" thickBot="1">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="16.2" thickBot="1">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="16.2" thickBot="1">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" ht="16.2" thickBot="1">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" ht="16.2" thickBot="1">
       <c r="A155" s="1"/>
     </row>
   </sheetData>

--- a/data/bulk/functions/AAA_f22_text only.xlsx
+++ b/data/bulk/functions/AAA_f22_text only.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamed/Desktop/AAA/22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\bulk\functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAD77B7-DA13-CB4E-A344-F5072260A33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6752B5-4217-41D8-BD8C-FBDF77D0D21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="500" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -2000,7 +2002,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2421,20 +2423,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH155"/>
+  <dimension ref="A1:AH130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="125" zoomScaleNormal="372" zoomScalePageLayoutView="372" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="372" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="42.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="90.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="6" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="6" customFormat="1" ht="31.95" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="357" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="328.2" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="31.8" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -2607,7 +2609,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="16.2" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -2640,7 +2642,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="50.4" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
@@ -2674,7 +2676,7 @@
       </c>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:34" ht="207" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="190.8" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="31.8" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
@@ -2737,7 +2739,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="31.8" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="16.2" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
@@ -2803,7 +2805,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="16.2" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="19.2" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>133</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="19.2" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>134</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="16.2" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>135</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="50.4" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="47.4" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
@@ -3004,7 +3006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="47.4" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="47.4" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
@@ -3064,7 +3066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="47.4" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -3094,7 +3096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="47.4" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
@@ -3124,7 +3126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="47.4" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="47.4" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
@@ -3184,7 +3186,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="34.799999999999997" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>144</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="16.2" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>145</v>
       </c>
@@ -3250,7 +3252,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="16.2" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>146</v>
       </c>
@@ -3283,7 +3285,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="16.2" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>147</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="16.2" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="16.2" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>149</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="16.2" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>150</v>
       </c>
@@ -3418,7 +3420,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="16.2" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>151</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="16.2" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="16.2" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>153</v>
       </c>
@@ -3517,7 +3519,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="16.2" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="16.2" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>155</v>
       </c>
@@ -3583,7 +3585,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="16.2" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
@@ -3616,7 +3618,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="31.8" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>157</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="16.2" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>158</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="16.2" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="31.8" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="31.8" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>161</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="16.2" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>162</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="31.8" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
@@ -3850,7 +3852,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="16.2" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>164</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="16.2" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>165</v>
       </c>
@@ -3910,7 +3912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="47.4" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>167</v>
       </c>
@@ -3979,7 +3981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="31.8" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>168</v>
       </c>
@@ -4009,7 +4011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="16.2" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>169</v>
       </c>
@@ -4048,7 +4050,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="16.2" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="19.2" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="16.2" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>172</v>
       </c>
@@ -4156,7 +4158,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="16.2" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>173</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="16.2" thickBot="1">
       <c r="A52" s="1" t="s">
         <v>174</v>
       </c>
@@ -4228,7 +4230,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="16.2" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>175</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="125.4" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>176</v>
       </c>
@@ -4296,7 +4298,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
-    <row r="55" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="16.2" thickBot="1">
       <c r="A55" s="1" t="s">
         <v>177</v>
       </c>
@@ -4329,7 +4331,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="31.8" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>178</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="31.8" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>179</v>
       </c>
@@ -4389,7 +4391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>180</v>
       </c>
@@ -4422,7 +4424,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="31.8" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>181</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="31.8" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>182</v>
       </c>
@@ -4488,7 +4490,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -4524,7 +4526,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="94.2" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
@@ -4560,7 +4562,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="16.2" thickBot="1">
       <c r="A63" s="1" t="s">
         <v>185</v>
       </c>
@@ -4596,7 +4598,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="94.2" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>186</v>
       </c>
@@ -4641,7 +4643,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="66" thickBot="1">
       <c r="A65" s="1" t="s">
         <v>187</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>188</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="16.2" thickBot="1">
       <c r="A67" s="1" t="s">
         <v>189</v>
       </c>
@@ -4737,7 +4739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="56" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="53.4" thickBot="1">
       <c r="A68" s="1" t="s">
         <v>190</v>
       </c>
@@ -4773,7 +4775,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="47.4" thickBot="1">
       <c r="A69" s="1" t="s">
         <v>191</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="81.599999999999994" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>192</v>
       </c>
@@ -4845,7 +4847,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A71" s="1" t="s">
         <v>193</v>
       </c>
@@ -4881,7 +4883,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="47.4" thickBot="1">
       <c r="A72" s="1" t="s">
         <v>194</v>
       </c>
@@ -4914,7 +4916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="66" thickBot="1">
       <c r="A73" s="1" t="s">
         <v>195</v>
       </c>
@@ -4950,7 +4952,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="47.4" thickBot="1">
       <c r="A74" s="1" t="s">
         <v>196</v>
       </c>
@@ -4986,7 +4988,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A75" s="1" t="s">
         <v>197</v>
       </c>
@@ -5022,7 +5024,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="287.39999999999998" thickBot="1">
       <c r="A76" s="1" t="s">
         <v>198</v>
       </c>
@@ -5055,7 +5057,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="287.39999999999998" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>199</v>
       </c>
@@ -5088,7 +5090,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="287.39999999999998" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>200</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="287.39999999999998" thickBot="1">
       <c r="A79" s="1" t="s">
         <v>201</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="287.39999999999998" thickBot="1">
       <c r="A80" s="1" t="s">
         <v>202</v>
       </c>
@@ -5187,7 +5189,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="287.39999999999998" thickBot="1">
       <c r="A81" s="1" t="s">
         <v>203</v>
       </c>
@@ -5220,7 +5222,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="311" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="287.39999999999998" thickBot="1">
       <c r="A82" s="1" t="s">
         <v>204</v>
       </c>
@@ -5253,7 +5255,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="47.4" thickBot="1">
       <c r="A83" s="1" t="s">
         <v>205</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="63" thickBot="1">
       <c r="A84" s="1" t="s">
         <v>206</v>
       </c>
@@ -5322,7 +5324,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="63" thickBot="1">
       <c r="A85" s="1" t="s">
         <v>207</v>
       </c>
@@ -5358,7 +5360,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="94.2" thickBot="1">
       <c r="A86" s="1" t="s">
         <v>208</v>
       </c>
@@ -5394,7 +5396,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="128" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="121.8" thickBot="1">
       <c r="A87" s="1" t="s">
         <v>209</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A88" s="1" t="s">
         <v>210</v>
       </c>
@@ -5460,7 +5462,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A89" s="1" t="s">
         <v>211</v>
       </c>
@@ -5496,7 +5498,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="50.4" thickBot="1">
       <c r="A90" s="1" t="s">
         <v>212</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A91" s="1" t="s">
         <v>213</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="107" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="100.2" thickBot="1">
       <c r="A92" s="1" t="s">
         <v>214</v>
       </c>
@@ -5598,7 +5600,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="47.4" thickBot="1">
       <c r="A93" s="1" t="s">
         <v>215</v>
       </c>
@@ -5634,7 +5636,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="63" thickBot="1">
       <c r="A94" s="1" t="s">
         <v>216</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="16.2" thickBot="1">
       <c r="A95" s="1" t="s">
         <v>217</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="63" thickBot="1">
       <c r="A96" s="1" t="s">
         <v>218</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="47.4" thickBot="1">
       <c r="A97" s="1" t="s">
         <v>219</v>
       </c>
@@ -5772,7 +5774,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="109.8" thickBot="1">
       <c r="A98" s="1" t="s">
         <v>220</v>
       </c>
@@ -5802,7 +5804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="109.8" thickBot="1">
       <c r="A99" s="1" t="s">
         <v>221</v>
       </c>
@@ -5832,7 +5834,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="109.8" thickBot="1">
       <c r="A100" s="1" t="s">
         <v>222</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="109.8" thickBot="1">
       <c r="A101" s="1" t="s">
         <v>223</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="109.8" thickBot="1">
       <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
@@ -5922,7 +5924,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="109.8" thickBot="1">
       <c r="A103" s="1" t="s">
         <v>225</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A104" s="1" t="s">
         <v>226</v>
       </c>
@@ -5991,7 +5993,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="81.599999999999994" thickBot="1">
       <c r="A105" s="1" t="s">
         <v>227</v>
       </c>
@@ -6024,7 +6026,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="94.2" thickBot="1">
       <c r="A106" s="1" t="s">
         <v>228</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="107" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="100.2" thickBot="1">
       <c r="A107" s="1" t="s">
         <v>229</v>
       </c>
@@ -6099,7 +6101,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="50.4" thickBot="1">
       <c r="A108" s="1" t="s">
         <v>230</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="16.2" thickBot="1">
       <c r="A109" s="1" t="s">
         <v>231</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="16.2" thickBot="1">
       <c r="A110" s="1" t="s">
         <v>232</v>
       </c>
@@ -6201,7 +6203,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="66" thickBot="1">
       <c r="A111" s="1" t="s">
         <v>233</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="66" thickBot="1">
       <c r="A112" s="1" t="s">
         <v>234</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="16.2" thickBot="1">
       <c r="A113" s="1" t="s">
         <v>235</v>
       </c>
@@ -6303,7 +6305,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="16.2" thickBot="1">
       <c r="A114" s="1" t="s">
         <v>236</v>
       </c>
@@ -6336,7 +6338,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="16.2" thickBot="1">
       <c r="A115" s="1" t="s">
         <v>237</v>
       </c>
@@ -6372,7 +6374,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="31.8" thickBot="1">
       <c r="A116" s="1" t="s">
         <v>238</v>
       </c>
@@ -6405,7 +6407,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="16.2" thickBot="1">
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="16.2" thickBot="1">
       <c r="A118" s="1" t="s">
         <v>240</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="31.8" thickBot="1">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="47.4" thickBot="1">
       <c r="A120" s="1" t="s">
         <v>242</v>
       </c>
@@ -6540,7 +6542,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="31.8" thickBot="1">
       <c r="A121" s="1" t="s">
         <v>243</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A122" s="1" t="s">
         <v>244</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="31.8" thickBot="1">
       <c r="A123" s="1" t="s">
         <v>245</v>
       </c>
@@ -6639,7 +6641,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="31.8" thickBot="1">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -6672,7 +6674,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="66" thickBot="1">
       <c r="A125" s="1" t="s">
         <v>247</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="31.8" thickBot="1">
       <c r="A126" s="1" t="s">
         <v>248</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="31.8" thickBot="1">
       <c r="A127" s="1" t="s">
         <v>249</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="78.599999999999994" thickBot="1">
       <c r="A128" s="1" t="s">
         <v>250</v>
       </c>
@@ -6807,7 +6809,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="31.8" thickBot="1">
       <c r="A129" s="1" t="s">
         <v>251</v>
       </c>
@@ -6843,7 +6845,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="50.4" thickBot="1">
       <c r="A130" s="1" t="s">
         <v>252</v>
       </c>
@@ -6875,81 +6877,6 @@
       <c r="M130" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/bulk/functions/AAA_f22_text only.xlsx
+++ b/data/bulk/functions/AAA_f22_text only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\bulk\functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6752B5-4217-41D8-BD8C-FBDF77D0D21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2E1CF4-6D66-4B50-9098-078B6F9B2082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1992,10 +1992,10 @@
     <t>ycoord</t>
   </si>
   <si>
-    <t xml:space="preserve">Point </t>
-  </si>
-  <si>
     <t>Certainty</t>
+  </si>
+  <si>
+    <t>Point</t>
   </si>
 </sst>
 </file>
@@ -2425,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="372" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="372" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2444,7 +2444,7 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
         <v>310</v>
@@ -2459,7 +2459,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>2</v>
@@ -3852,7 +3852,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="16.2" thickBot="1">
+    <row r="42" spans="1:29" ht="31.8" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>164</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="287.39999999999998" thickBot="1">
+    <row r="76" spans="1:29" ht="303" thickBot="1">
       <c r="A76" s="1" t="s">
         <v>198</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="287.39999999999998" thickBot="1">
+    <row r="77" spans="1:29" ht="303" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>199</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="287.39999999999998" thickBot="1">
+    <row r="78" spans="1:29" ht="303" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>200</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="287.39999999999998" thickBot="1">
+    <row r="79" spans="1:29" ht="303" thickBot="1">
       <c r="A79" s="1" t="s">
         <v>201</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="287.39999999999998" thickBot="1">
+    <row r="80" spans="1:29" ht="303" thickBot="1">
       <c r="A80" s="1" t="s">
         <v>202</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="287.39999999999998" thickBot="1">
+    <row r="81" spans="1:25" ht="303" thickBot="1">
       <c r="A81" s="1" t="s">
         <v>203</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="287.39999999999998" thickBot="1">
+    <row r="82" spans="1:25" ht="303" thickBot="1">
       <c r="A82" s="1" t="s">
         <v>204</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="16.2" thickBot="1">
+    <row r="109" spans="1:25" ht="31.8" thickBot="1">
       <c r="A109" s="1" t="s">
         <v>231</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="16.2" thickBot="1">
+    <row r="110" spans="1:25" ht="31.8" thickBot="1">
       <c r="A110" s="1" t="s">
         <v>232</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="16.2" thickBot="1">
+    <row r="113" spans="1:25" ht="31.8" thickBot="1">
       <c r="A113" s="1" t="s">
         <v>235</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="16.2" thickBot="1">
+    <row r="114" spans="1:25" ht="31.8" thickBot="1">
       <c r="A114" s="1" t="s">
         <v>236</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="16.2" thickBot="1">
+    <row r="115" spans="1:25" ht="31.8" thickBot="1">
       <c r="A115" s="1" t="s">
         <v>237</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="16.2" thickBot="1">
+    <row r="117" spans="1:25" ht="31.8" thickBot="1">
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="16.2" thickBot="1">
+    <row r="118" spans="1:25" ht="31.8" thickBot="1">
       <c r="A118" s="1" t="s">
         <v>240</v>
       </c>
